--- a/GINX_TimeTable17A.xlsx
+++ b/GINX_TimeTable17A.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/300098957/Developer/17A/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
+    <workbookView xWindow="17100" yWindow="2880" windowWidth="25780" windowHeight="24300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -12,6 +17,9 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -65,7 +73,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,11 +97,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Black"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Arial Black"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -340,9 +349,20 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFD7D6"/>
+      <color rgb="FFFFADD6"/>
+      <color rgb="FFFF80A9"/>
+      <color rgb="FFFF8AD8"/>
+      <color rgb="FFFF7E79"/>
+      <color rgb="FFFF85FF"/>
       <color rgb="FFFCFF36"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -351,11 +371,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
+    <xdr:ext cx="2870200" cy="2336800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="ZoneTexte 1"/>
@@ -363,8 +383,1397 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3987800" y="5740400"/>
+          <a:off x="3962400" y="4991100"/>
+          <a:ext cx="2870200" cy="2336800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1040 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3241 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Introduction à la réseautique</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="2336800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6832600" y="4203700"/>
+          <a:ext cx="2870200" cy="2336800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FRA1005 - 15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3242 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Français I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>L. Boulerial</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1625600"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3949700" y="7683500"/>
+          <a:ext cx="2870200" cy="1625600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MAT1018 - 2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3240 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mathématiques informatiques</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1638300"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="ZoneTexte 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="7670800"/>
+          <a:ext cx="2870200" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MAT1018 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3242 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mathématiques informatiques</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1549400"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="5765800"/>
           <a:ext cx="2870200" cy="1549400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1035 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3214 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Logiciels d'applications</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>J. Ngom</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1587500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="ZoneTexte 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1079500" y="7683500"/>
+          <a:ext cx="2870200" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1074 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3215 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Systèmes d'exploitation et ordinateurs</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>É. Fotsing Sighano</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1612900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="ZoneTexte 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6832600" y="7683500"/>
+          <a:ext cx="2870200" cy="1612900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> INF1074 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3215 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Systèmes d'exploitation et ordinateurs</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>É. Fotsing Sighano</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="2324100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="ZoneTexte 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="4978400"/>
+          <a:ext cx="2870200" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1039 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3215 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Introduction aux algorithmes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1549400"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="ZoneTexte 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1054100" y="4191000"/>
+          <a:ext cx="2870200" cy="1549400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1035 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3214 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Logiciels d'applications</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>J. Ngom</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1651000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1079500" y="8128000"/>
+          <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -402,32 +1811,104 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>INF1042 - 1</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1044 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3214 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Logiciels de développement</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>LA1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3215</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Introduction à la programmation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>B. Robert</a:t>
-          </a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. Malukai</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -435,21 +1916,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
+    <xdr:ext cx="2870200" cy="1663700"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvPr id="4" name="ZoneTexte 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6883400" y="4978400"/>
-          <a:ext cx="2870200" cy="1549400"/>
+          <a:off x="3937000" y="8140700"/>
+          <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -486,33 +1967,101 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>INF1042 - 1</a:t>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1006 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3215 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Système de gestion de bases de données</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>LA1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3215</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Introduction à la programmation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>B. Robert</a:t>
-          </a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>H. Moussa</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -520,21 +2069,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
+    <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+        <xdr:cNvPr id="10" name="ZoneTexte 9"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3987800" y="7302500"/>
-          <a:ext cx="2870200" cy="1549400"/>
+          <a:off x="3949700" y="3187700"/>
+          <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -571,33 +2120,110 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>INF1041 - 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>LA1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3215</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Introduction à l'administration des systèmes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>S.Sidi-Mabrouk</a:t>
-          </a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1045 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3215 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Administration des serveurs</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -605,21 +2231,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
+    <xdr:ext cx="2870200" cy="2514600"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="ZoneTexte 4"/>
+        <xdr:cNvPr id="12" name="ZoneTexte 11"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9740900" y="7302500"/>
-          <a:ext cx="2870200" cy="1549400"/>
+          <a:off x="1079500" y="5207000"/>
+          <a:ext cx="2870200" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -656,33 +2282,110 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>INF1041 - 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>LA1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3215</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Introduction à l'administration des systèmes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>S.Sidi-Mabrouk</a:t>
-          </a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1018 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3215 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Formation aux usagers</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M. Ibghi</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -690,21 +2393,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
+    <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+        <xdr:cNvPr id="13" name="ZoneTexte 12"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="5765800"/>
-          <a:ext cx="2870200" cy="1549400"/>
+          <a:off x="9728200" y="3200400"/>
+          <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -741,27 +2444,110 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>INF1049 - 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1045 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>TH1</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3240</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Service à la clientèle</a:t>
-          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3215 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Administration des serveurs</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -769,21 +2555,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2400300"/>
+    <xdr:ext cx="2870200" cy="2514600"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="ZoneTexte 6"/>
+        <xdr:cNvPr id="15" name="ZoneTexte 14"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="7327900"/>
-          <a:ext cx="2870200" cy="2400300"/>
+          <a:off x="9702800" y="5245100"/>
+          <a:ext cx="2870200" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -820,33 +2606,110 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>INF1079 - 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> INF1046 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>TH1</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3215</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Dépannage et réparation de systèmes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>É. Fotsing Sighano</a:t>
-          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3214 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Développement d'applications multimédia</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. Dos Santos Reis</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -855,20 +2718,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1612900"/>
+    <xdr:ext cx="2870200" cy="1625600"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="ZoneTexte 7"/>
+        <xdr:cNvPr id="16" name="ZoneTexte 15"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="8077200"/>
-          <a:ext cx="2870200" cy="1612900"/>
+          <a:off x="9715500" y="8166100"/>
+          <a:ext cx="2870200" cy="1625600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -905,33 +2768,101 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>INF1079 - 1</a:t>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1006 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3215 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Système de gestion de bases de données</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TH1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3215</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Dépannage et réparation de systèmes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>É. Fotsing Sighano</a:t>
-          </a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>H. Moussa</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -939,21 +2870,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
+    <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="ZoneTexte 8"/>
+        <xdr:cNvPr id="17" name="ZoneTexte 16"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12636500" y="6540500"/>
-          <a:ext cx="2870200" cy="1549400"/>
+          <a:off x="6832600" y="6070600"/>
+          <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -991,32 +2922,104 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t> INF1021 - 1</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1044 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3214 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Logiciels de développement</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>LA1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3215</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Protocoles et concepts de routage</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>R. Engoulou</a:t>
-          </a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. Malukai</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1025,20 +3028,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
+    <xdr:ext cx="2870200" cy="1663700"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="ZoneTexte 9"/>
+        <xdr:cNvPr id="18" name="ZoneTexte 17"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6870700" y="6540500"/>
-          <a:ext cx="2870200" cy="1549400"/>
+          <a:off x="6845300" y="8140700"/>
+          <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1075,33 +3078,110 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t> INF1021 - 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>LA1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3215</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Protocoles et concepts de routage</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1023 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3214 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Réseaux locaux et à distance</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>R. Engoulou</a:t>
           </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1109,21 +3189,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2324100"/>
+    <xdr:ext cx="2870200" cy="1663700"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="ZoneTexte 10"/>
+        <xdr:cNvPr id="19" name="ZoneTexte 18"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12636500" y="4203700"/>
-          <a:ext cx="2870200" cy="2324100"/>
+          <a:off x="12598400" y="8140700"/>
+          <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1160,60 +3240,132 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>ENG1011 - 9</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1023 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>TH1</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3158</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Professional Communication in English</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>P. Davis</a:t>
-          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3214 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Réseaux locaux et à distance</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R. Engoulou</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
+    <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvPr id="20" name="ZoneTexte 19"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="6527800"/>
-          <a:ext cx="2870200" cy="1549400"/>
+          <a:off x="1092200" y="2781300"/>
+          <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1250,33 +3402,110 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t> INF1055 - 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1048 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>TH1</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3214</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Administration de système</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3215 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Programmation et scripts</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>B. Robert</a:t>
           </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1284,21 +3513,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
+    <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvPr id="21" name="ZoneTexte 20"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="6553200"/>
-          <a:ext cx="2870200" cy="1549400"/>
+          <a:off x="12598400" y="5676900"/>
+          <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1335,718 +3564,110 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t> INF1055 - 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1048 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>TH1</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="is-IS" sz="1200"/>
-            <a:t>3214</a:t>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3215 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Programmation et scripts</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Administration de système</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>B. Robert</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="ZoneTexte 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3975100" y="6896100"/>
-          <a:ext cx="2870200" cy="1549400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>INF1069 - 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TH1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3214</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Design de bases de données</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>S. Tshibangu Mutshi</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="ZoneTexte 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9740900" y="6921500"/>
-          <a:ext cx="2870200" cy="1549400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>INF1069 - 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TH1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3214</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Design de bases de données</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>S. Tshibangu Mutshi</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="2324100"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="ZoneTexte 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6845300" y="4203700"/>
-          <a:ext cx="2870200" cy="2324100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>FRA1006 - 6</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TH1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3207</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Français II</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>L. Boulerial</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="2324100"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="ZoneTexte 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3962400" y="8458200"/>
-          <a:ext cx="2870200" cy="2324100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>GEN1036 - 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TH1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3214</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Design artistique</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Jason</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1574800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="ZoneTexte 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9740900" y="5334000"/>
-          <a:ext cx="2870200" cy="1574800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>INF1051 - 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TH1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3214</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Programmation internet</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>B. Robert</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="ZoneTexte 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9740900" y="3810000"/>
-          <a:ext cx="2870200" cy="1549400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>NF1053 - 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TH1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3214</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Programmation de serveur </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>B. Robert</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1574800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="ZoneTexte 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6858000" y="8115300"/>
-          <a:ext cx="2870200" cy="1574800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>INF1051 - 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TH1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3214 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Programmation internet</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>B. Robert</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="ZoneTexte 11"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1104900" y="4953000"/>
-          <a:ext cx="2870200" cy="1549400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>NF1053 - 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TH1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>TO - 3214 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>Programmation de serveur </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>B. Robert</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2379,18 +4000,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" customWidth="1"/>
     <col min="3" max="7" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -2413,7 +4032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>8</v>
       </c>
@@ -2426,7 +4045,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
@@ -2437,7 +4056,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
@@ -2448,7 +4067,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
@@ -2459,7 +4078,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>9</v>
       </c>
@@ -2472,7 +4091,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
@@ -2483,7 +4102,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
@@ -2494,7 +4113,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
@@ -2505,7 +4124,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>10</v>
       </c>
@@ -2518,7 +4137,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
@@ -2529,7 +4148,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
@@ -2540,7 +4159,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
@@ -2551,7 +4170,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>11</v>
       </c>
@@ -2564,7 +4183,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
@@ -2575,7 +4194,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
@@ -2586,7 +4205,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
@@ -2597,7 +4216,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>12</v>
       </c>
@@ -2610,7 +4229,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
@@ -2621,7 +4240,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
@@ -2632,7 +4251,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" thickBot="1">
+    <row r="21" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
@@ -2643,7 +4262,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>13</v>
       </c>
@@ -2656,7 +4275,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
@@ -2667,7 +4286,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
@@ -2678,7 +4297,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" thickBot="1">
+    <row r="25" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
@@ -2689,7 +4308,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>14</v>
       </c>
@@ -2702,7 +4321,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
@@ -2713,7 +4332,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
@@ -2724,7 +4343,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1" thickBot="1">
+    <row r="29" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
@@ -2735,7 +4354,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>15</v>
       </c>
@@ -2748,7 +4367,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
@@ -2759,7 +4378,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
@@ -2770,7 +4389,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1" thickBot="1">
+    <row r="33" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
@@ -2781,7 +4400,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
         <v>16</v>
       </c>
@@ -2794,7 +4413,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
@@ -2805,7 +4424,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
@@ -2816,7 +4435,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1" thickBot="1">
+    <row r="37" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
@@ -2827,7 +4446,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
         <v>17</v>
       </c>
@@ -2840,7 +4459,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
@@ -2851,7 +4470,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
@@ -2862,7 +4481,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" ht="16" customHeight="1" thickBot="1">
+    <row r="41" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
@@ -2873,7 +4492,7 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
         <v>18</v>
       </c>
@@ -2886,7 +4505,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
@@ -2897,7 +4516,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
@@ -2908,7 +4527,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" ht="16" customHeight="1" thickBot="1">
+    <row r="45" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
@@ -2919,7 +4538,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22">
         <v>19</v>
       </c>
@@ -2932,7 +4551,7 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
@@ -2943,7 +4562,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
@@ -2954,7 +4573,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:7" ht="16" customHeight="1" thickBot="1">
+    <row r="49" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
@@ -2965,7 +4584,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
         <v>20</v>
       </c>
@@ -2978,7 +4597,7 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="23"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
@@ -2989,7 +4608,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
@@ -3000,7 +4619,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="1:7" ht="16" customHeight="1" thickBot="1">
+    <row r="53" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
@@ -3013,6 +4632,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -3020,21 +4645,10 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3042,18 +4656,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" customWidth="1"/>
     <col min="3" max="7" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -3076,7 +4690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>8</v>
       </c>
@@ -3089,7 +4703,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
@@ -3100,7 +4714,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
@@ -3111,7 +4725,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="16" thickBot="1">
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
@@ -3122,7 +4736,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>9</v>
       </c>
@@ -3135,7 +4749,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
@@ -3146,7 +4760,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
@@ -3157,7 +4771,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1">
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
@@ -3168,7 +4782,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>10</v>
       </c>
@@ -3181,7 +4795,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
@@ -3192,7 +4806,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
@@ -3203,7 +4817,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="16" thickBot="1">
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
@@ -3214,7 +4828,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>11</v>
       </c>
@@ -3227,7 +4841,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
@@ -3238,7 +4852,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
@@ -3249,7 +4863,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="16" thickBot="1">
+    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
@@ -3260,7 +4874,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>12</v>
       </c>
@@ -3273,7 +4887,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
@@ -3284,7 +4898,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
@@ -3295,7 +4909,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="16" thickBot="1">
+    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
@@ -3306,7 +4920,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>13</v>
       </c>
@@ -3319,7 +4933,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
@@ -3330,7 +4944,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
@@ -3341,7 +4955,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="16" thickBot="1">
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
@@ -3352,7 +4966,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>14</v>
       </c>
@@ -3365,7 +4979,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
@@ -3376,7 +4990,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
@@ -3387,7 +5001,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="16" thickBot="1">
+    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
@@ -3398,7 +5012,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>15</v>
       </c>
@@ -3411,7 +5025,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
@@ -3422,7 +5036,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
@@ -3433,7 +5047,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="16" thickBot="1">
+    <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
@@ -3444,7 +5058,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
         <v>16</v>
       </c>
@@ -3457,7 +5071,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
@@ -3468,7 +5082,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
@@ -3479,7 +5093,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="16" thickBot="1">
+    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
@@ -3490,7 +5104,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
         <v>17</v>
       </c>
@@ -3503,7 +5117,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
@@ -3514,7 +5128,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
@@ -3525,7 +5139,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" ht="16" thickBot="1">
+    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
@@ -3536,7 +5150,7 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
         <v>18</v>
       </c>
@@ -3549,7 +5163,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
@@ -3560,7 +5174,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
@@ -3571,7 +5185,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" ht="16" thickBot="1">
+    <row r="45" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
@@ -3582,7 +5196,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="22">
         <v>19</v>
       </c>
@@ -3595,7 +5209,7 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
@@ -3606,7 +5220,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
@@ -3617,7 +5231,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:7" ht="16" thickBot="1">
+    <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
@@ -3628,7 +5242,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
         <v>20</v>
       </c>
@@ -3641,7 +5255,7 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="23"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
@@ -3652,7 +5266,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
@@ -3663,7 +5277,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="1:7" ht="16" thickBot="1">
+    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
@@ -3676,6 +5290,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -3683,20 +5303,9 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/GINX_TimeTable17A.xlsx
+++ b/GINX_TimeTable17A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="2880" windowWidth="25780" windowHeight="24300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="15460" yWindow="2920" windowWidth="25780" windowHeight="24300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -1759,10 +1759,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -1772,7 +1772,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="8128000"/>
+          <a:off x="1016000" y="8153400"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1895,21 +1895,6 @@
             <a:t>Logiciels de développement</a:t>
           </a:r>
         </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>C. Malukai</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1919,7 +1904,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2857500</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1663700"/>
     <xdr:sp macro="" textlink="">
@@ -1929,7 +1914,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3937000" y="8140700"/>
+          <a:off x="3937000" y="8115300"/>
           <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2871,9 +2856,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2883,7 +2868,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6832600" y="6070600"/>
+          <a:off x="6819900" y="5270500"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3006,31 +2991,16 @@
             <a:t>Logiciels de développement</a:t>
           </a:r>
         </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>C. Malukai</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1663700"/>
     <xdr:sp macro="" textlink="">
@@ -3040,7 +3010,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6845300" y="8140700"/>
+          <a:off x="6832600" y="7327900"/>
           <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3191,8 +3161,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2870200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1663700"/>
     <xdr:sp macro="" textlink="">
@@ -3202,7 +3172,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12598400" y="8140700"/>
+          <a:off x="12598400" y="7340600"/>
           <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3513,10 +3483,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -3526,7 +3496,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12598400" y="5676900"/>
+          <a:off x="12611100" y="5270500"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4632,12 +4602,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4645,6 +4609,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5290,12 +5260,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5303,6 +5267,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable17A.xlsx
+++ b/GINX_TimeTable17A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15460" yWindow="2920" windowWidth="25780" windowHeight="24300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11720" yWindow="2320" windowWidth="25780" windowHeight="24300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -1111,7 +1111,7 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1587500"/>
+    <xdr:ext cx="2870200" cy="2057400"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="ZoneTexte 6"/>
@@ -1120,7 +1120,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1079500" y="7683500"/>
-          <a:ext cx="2870200" cy="1587500"/>
+          <a:ext cx="2870200" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1273,7 +1273,7 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1612900"/>
+    <xdr:ext cx="2870200" cy="2057400"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="ZoneTexte 7"/>
@@ -1282,7 +1282,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6832600" y="7683500"/>
-          <a:ext cx="2870200" cy="1612900"/>
+          <a:ext cx="2870200" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3970,7 +3970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4602,6 +4602,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4609,12 +4615,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4626,7 +4626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -5260,6 +5260,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5267,12 +5273,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable17A.xlsx
+++ b/GINX_TimeTable17A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="2320" windowWidth="25780" windowHeight="24300" tabRatio="500"/>
+    <workbookView xWindow="9580" yWindow="840" windowWidth="31340" windowHeight="26340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -1895,6 +1895,20 @@
             <a:t>Logiciels de développement</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R. Talih</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -2989,6 +3003,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Logiciels de développement</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R. Talih</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3970,7 +3998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4602,12 +4630,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4615,6 +4637,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4626,9 +4654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5260,12 +5286,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5273,6 +5293,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
